--- a/team_specific_matrix/Arizona St._A.xlsx
+++ b/team_specific_matrix/Arizona St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="C2">
-        <v>0.4553571428571428</v>
+        <v>0.4502923976608187</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01785714285714286</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1160714285714286</v>
+        <v>0.1286549707602339</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1607142857142857</v>
+        <v>0.1637426900584795</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C3">
-        <v>0.01923076923076923</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03846153846153846</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6538461538461539</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2884615384615384</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8333333333333334</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1666666666666667</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06153846153846154</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01538461538461539</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03076923076923077</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2153846153846154</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01538461538461539</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1692307692307692</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="R6">
-        <v>0.09230769230769231</v>
+        <v>0.1</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1304347826086956</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02173913043478261</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.108695652173913</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06521739130434782</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02173913043478261</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1304347826086956</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="R7">
-        <v>0.04347826086956522</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="S7">
-        <v>0.4782608695652174</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0759493670886076</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02531645569620253</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04430379746835443</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0759493670886076</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1265822784810127</v>
+        <v>0.1244239631336406</v>
       </c>
       <c r="R8">
-        <v>0.1329113924050633</v>
+        <v>0.1244239631336406</v>
       </c>
       <c r="S8">
-        <v>0.5189873417721519</v>
+        <v>0.5253456221198156</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08955223880597014</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05970149253731343</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02985074626865672</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01492537313432836</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2238805970149254</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="R9">
-        <v>0.07462686567164178</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="S9">
-        <v>0.5074626865671642</v>
+        <v>0.5257731958762887</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1322505800464037</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03016241299303944</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0580046403712297</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09280742459396751</v>
+        <v>0.09682539682539683</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02320185614849188</v>
+        <v>0.02063492063492063</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2064965197215777</v>
+        <v>0.2</v>
       </c>
       <c r="R10">
-        <v>0.06496519721577726</v>
+        <v>0.05396825396825397</v>
       </c>
       <c r="S10">
-        <v>0.3921113689095128</v>
+        <v>0.3952380952380952</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1428571428571428</v>
+        <v>0.12</v>
       </c>
       <c r="K11">
-        <v>0.1428571428571428</v>
+        <v>0.17</v>
       </c>
       <c r="L11">
-        <v>0.6142857142857143</v>
+        <v>0.59</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7333333333333333</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2222222222222222</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04444444444444445</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01388888888888889</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1527777777777778</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I15">
-        <v>0.05555555555555555</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="J15">
-        <v>0.3888888888888889</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="K15">
-        <v>0.06944444444444445</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06944444444444445</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.06451612903225806</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1290322580645161</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="I16">
-        <v>0.04838709677419355</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="J16">
-        <v>0.4516129032258064</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="K16">
-        <v>0.1129032258064516</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06451612903225806</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1290322580645161</v>
+        <v>0.1208791208791209</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02127659574468085</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1702127659574468</v>
+        <v>0.1631578947368421</v>
       </c>
       <c r="I17">
-        <v>0.148936170212766</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="J17">
-        <v>0.375886524822695</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="K17">
-        <v>0.07801418439716312</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01418439716312057</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04964539007092199</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1418439716312057</v>
+        <v>0.1368421052631579</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1129032258064516</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="I18">
-        <v>0.04838709677419355</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="J18">
-        <v>0.5161290322580645</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="K18">
-        <v>0.09677419354838709</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01612903225806452</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04838709677419355</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1612903225806452</v>
+        <v>0.1585365853658537</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01037344398340249</v>
+        <v>0.0100864553314121</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2282157676348548</v>
+        <v>0.2118155619596542</v>
       </c>
       <c r="I19">
-        <v>0.07676348547717843</v>
+        <v>0.07780979827089338</v>
       </c>
       <c r="J19">
-        <v>0.4087136929460581</v>
+        <v>0.4265129682997118</v>
       </c>
       <c r="K19">
-        <v>0.06224066390041494</v>
+        <v>0.06195965417867435</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02074688796680498</v>
+        <v>0.01873198847262248</v>
       </c>
       <c r="N19">
-        <v>0.002074688796680498</v>
+        <v>0.001440922190201729</v>
       </c>
       <c r="O19">
-        <v>0.06431535269709543</v>
+        <v>0.06772334293948126</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1265560165975104</v>
+        <v>0.1239193083573487</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Arizona St._A.xlsx
+++ b/team_specific_matrix/Arizona St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2456140350877193</v>
+        <v>0.24</v>
       </c>
       <c r="C2">
-        <v>0.4502923976608187</v>
+        <v>0.4628571428571429</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01169590643274854</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1286549707602339</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1637426900584795</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01282051282051282</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C3">
-        <v>0.01282051282051282</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6410256410256411</v>
+        <v>0.6463414634146342</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.3076923076923077</v>
+        <v>0.3048780487804878</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7307692307692307</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2692307692307692</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05555555555555555</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01111111111111111</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03333333333333333</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2555555555555555</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01111111111111111</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1444444444444444</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="R6">
-        <v>0.1</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="S6">
-        <v>0.3888888888888889</v>
+        <v>0.3711340206185567</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01587301587301587</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07936507936507936</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07936507936507936</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01587301587301587</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1587301587301587</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="R7">
-        <v>0.06349206349206349</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="S7">
-        <v>0.4761904761904762</v>
+        <v>0.4927536231884058</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07373271889400922</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0184331797235023</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05069124423963134</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08294930875576037</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1244239631336406</v>
+        <v>0.1324786324786325</v>
       </c>
       <c r="R8">
-        <v>0.1244239631336406</v>
+        <v>0.1239316239316239</v>
       </c>
       <c r="S8">
-        <v>0.5253456221198156</v>
+        <v>0.5213675213675214</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09278350515463918</v>
+        <v>0.09</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05154639175257732</v>
+        <v>0.06</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06185567010309279</v>
+        <v>0.06</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02061855670103093</v>
+        <v>0.02</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1649484536082474</v>
+        <v>0.16</v>
       </c>
       <c r="R9">
-        <v>0.08247422680412371</v>
+        <v>0.08</v>
       </c>
       <c r="S9">
-        <v>0.5257731958762887</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1444444444444444</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03333333333333333</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05555555555555555</v>
+        <v>0.0562962962962963</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09682539682539683</v>
+        <v>0.1007407407407407</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02063492063492063</v>
+        <v>0.02074074074074074</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="R10">
-        <v>0.05396825396825397</v>
+        <v>0.0562962962962963</v>
       </c>
       <c r="S10">
-        <v>0.3952380952380952</v>
+        <v>0.3851851851851852</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.11</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.12</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="K11">
-        <v>0.17</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L11">
-        <v>0.59</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01</v>
+        <v>0.009523809523809525</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7142857142857143</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2063492063492063</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03174603174603174</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04761904761904762</v>
+        <v>0.04477611940298507</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4375</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.375</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1875</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009615384615384616</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1538461538461539</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="I15">
-        <v>0.0576923076923077</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="J15">
-        <v>0.4038461538461539</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="K15">
-        <v>0.07692307692307693</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04807692307692308</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2522522522522522</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.06593406593406594</v>
+        <v>0.0625</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1318681318681319</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="I16">
-        <v>0.05494505494505494</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="J16">
-        <v>0.4615384615384616</v>
+        <v>0.46875</v>
       </c>
       <c r="K16">
-        <v>0.0989010989010989</v>
+        <v>0.09375</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06593406593406594</v>
+        <v>0.0625</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1208791208791209</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02105263157894737</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1631578947368421</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="I17">
-        <v>0.1526315789473684</v>
+        <v>0.1380952380952381</v>
       </c>
       <c r="J17">
-        <v>0.3684210526315789</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="K17">
-        <v>0.07894736842105263</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01578947368421053</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06315789473684211</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1368421052631579</v>
+        <v>0.1476190476190476</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01219512195121951</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1707317073170732</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="I18">
-        <v>0.04878048780487805</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="J18">
-        <v>0.475609756097561</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="K18">
-        <v>0.08536585365853659</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01219512195121951</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03658536585365853</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1585365853658537</v>
+        <v>0.1704545454545454</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0100864553314121</v>
+        <v>0.01085481682496608</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2118155619596542</v>
+        <v>0.2116689280868385</v>
       </c>
       <c r="I19">
-        <v>0.07780979827089338</v>
+        <v>0.07734056987788331</v>
       </c>
       <c r="J19">
-        <v>0.4265129682997118</v>
+        <v>0.4246947082767978</v>
       </c>
       <c r="K19">
-        <v>0.06195965417867435</v>
+        <v>0.06241519674355495</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01873198847262248</v>
+        <v>0.0203527815468114</v>
       </c>
       <c r="N19">
-        <v>0.001440922190201729</v>
+        <v>0.00135685210312076</v>
       </c>
       <c r="O19">
-        <v>0.06772334293948126</v>
+        <v>0.06648575305291723</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1239193083573487</v>
+        <v>0.1248303934871099</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Arizona St._A.xlsx
+++ b/team_specific_matrix/Arizona St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.24</v>
+        <v>0.2218934911242604</v>
       </c>
       <c r="C2">
-        <v>0.4628571428571429</v>
+        <v>0.5029585798816568</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01142857142857143</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1257142857142857</v>
+        <v>0.1331360946745562</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.16</v>
+        <v>0.1242603550295858</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01219512195121951</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="C3">
-        <v>0.01219512195121951</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02439024390243903</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6463414634146342</v>
+        <v>0.6936416184971098</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.3048780487804878</v>
+        <v>0.2658959537572254</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7241379310344828</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2758620689655172</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06185567010309279</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01030927835051546</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03092783505154639</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2577319587628866</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02061855670103093</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.154639175257732</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="R6">
-        <v>0.09278350515463918</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S6">
-        <v>0.3711340206185567</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1014492753623188</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01449275362318841</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08695652173913043</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08695652173913043</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01449275362318841</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1449275362318841</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="R7">
-        <v>0.05797101449275362</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="S7">
-        <v>0.4927536231884058</v>
+        <v>0.4497354497354497</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07264957264957266</v>
+        <v>0.07847082494969819</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0170940170940171</v>
+        <v>0.01810865191146881</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04700854700854701</v>
+        <v>0.05835010060362173</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08547008547008547</v>
+        <v>0.08853118712273642</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.008048289738430584</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1324786324786325</v>
+        <v>0.1468812877263581</v>
       </c>
       <c r="R8">
-        <v>0.1239316239316239</v>
+        <v>0.096579476861167</v>
       </c>
       <c r="S8">
-        <v>0.5213675213675214</v>
+        <v>0.5050301810865191</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.16</v>
+        <v>0.1767441860465116</v>
       </c>
       <c r="R9">
-        <v>0.08</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="S9">
-        <v>0.53</v>
+        <v>0.4837209302325581</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1377777777777778</v>
+        <v>0.1271763815291446</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03555555555555556</v>
+        <v>0.03330809992429978</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0562962962962963</v>
+        <v>0.05526116578349735</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1007407407407407</v>
+        <v>0.09386828160484481</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02074074074074074</v>
+        <v>0.01362604087812263</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2074074074074074</v>
+        <v>0.2172596517789553</v>
       </c>
       <c r="R10">
-        <v>0.0562962962962963</v>
+        <v>0.07494322482967448</v>
       </c>
       <c r="S10">
-        <v>0.3851851851851852</v>
+        <v>0.384557153671461</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1142857142857143</v>
+        <v>0.1331058020477816</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1142857142857143</v>
+        <v>0.10580204778157</v>
       </c>
       <c r="K11">
-        <v>0.1714285714285714</v>
+        <v>0.1774744027303754</v>
       </c>
       <c r="L11">
-        <v>0.5904761904761905</v>
+        <v>0.5699658703071673</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009523809523809525</v>
+        <v>0.0136518771331058</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7164179104477612</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1940298507462687</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L12">
-        <v>0.04477611940298507</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04477611940298507</v>
+        <v>0.03954802259887006</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G13">
-        <v>0.4736842105263158</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3684210526315789</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1578947368421053</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009009009009009009</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1531531531531531</v>
+        <v>0.1681034482758621</v>
       </c>
       <c r="I15">
-        <v>0.05405405405405406</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="J15">
-        <v>0.4144144144144144</v>
+        <v>0.3706896551724138</v>
       </c>
       <c r="K15">
-        <v>0.07207207207207207</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04504504504504504</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2522522522522522</v>
+        <v>0.2370689655172414</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0625</v>
+        <v>0.03</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1354166666666667</v>
+        <v>0.195</v>
       </c>
       <c r="I16">
-        <v>0.05208333333333334</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J16">
-        <v>0.46875</v>
+        <v>0.385</v>
       </c>
       <c r="K16">
-        <v>0.09375</v>
+        <v>0.13</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0625</v>
+        <v>0.065</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01904761904761905</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1619047619047619</v>
+        <v>0.1612200435729848</v>
       </c>
       <c r="I17">
-        <v>0.1380952380952381</v>
+        <v>0.1132897603485839</v>
       </c>
       <c r="J17">
-        <v>0.3714285714285714</v>
+        <v>0.4139433551198257</v>
       </c>
       <c r="K17">
-        <v>0.0761904761904762</v>
+        <v>0.08278867102396514</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01904761904761905</v>
+        <v>0.02178649237472767</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06666666666666667</v>
+        <v>0.06535947712418301</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1476190476190476</v>
+        <v>0.1220043572984749</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01136363636363636</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1931818181818182</v>
+        <v>0.1813471502590674</v>
       </c>
       <c r="I18">
-        <v>0.04545454545454546</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="J18">
-        <v>0.4545454545454545</v>
+        <v>0.4196891191709844</v>
       </c>
       <c r="K18">
-        <v>0.07954545454545454</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01136363636363636</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03409090909090909</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1704545454545454</v>
+        <v>0.1295336787564767</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01085481682496608</v>
+        <v>0.0110803324099723</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2116689280868385</v>
+        <v>0.2174515235457064</v>
       </c>
       <c r="I19">
-        <v>0.07734056987788331</v>
+        <v>0.0796398891966759</v>
       </c>
       <c r="J19">
-        <v>0.4246947082767978</v>
+        <v>0.3857340720221606</v>
       </c>
       <c r="K19">
-        <v>0.06241519674355495</v>
+        <v>0.09626038781163435</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0203527815468114</v>
+        <v>0.0221606648199446</v>
       </c>
       <c r="N19">
-        <v>0.00135685210312076</v>
+        <v>0.001385041551246537</v>
       </c>
       <c r="O19">
-        <v>0.06648575305291723</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1248303934871099</v>
+        <v>0.1204986149584488</v>
       </c>
     </row>
   </sheetData>
